--- a/biology/Botanique/Zinnia_violacea/Zinnia_violacea.xlsx
+++ b/biology/Botanique/Zinnia_violacea/Zinnia_violacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zinnia violacea est une espèce de plantes à fleurs de la famille des Asteraceae.
 Elle est originaire du Mexique où elle pousse à l'état sauvage dans le nord et le centre du pays.
@@ -516,7 +528,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante annuelle érigée haute de 30 à 70 cm, fleurissant de juillet à octobre, fleurs de couleur blanc crème, rose, rouge, violet, jaune ou orange.
 À l'aisselle des feuilles, se forment des tiges florales à fleurs nectarifères simples ou doubles qui attirent les papillons. Les feuilles sont caduques, sessiles, opposées, duveteuses et rugueuses sur des tiges cassantes et creuses.
@@ -548,7 +562,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Multiplication se fait par semis au début du printemps (mars-avril), sous châssis ou en place de mai à juin.
 Au printemps, il faut repiquer en place en espaçant tous les 20 cm.
@@ -584,7 +600,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Zinnia elegans Jacq.
 Crassina elegans (Jacq.) Kuntze</t>
